--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/123/incorrect_predictions_123.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,62 +496,62 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Go to Profile &gt;</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Go to Profile &gt;</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,17 +571,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Strong Interference</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -596,12 +596,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Strong Interference</t>
+          <t>Now Fly with caution</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -662,21 +662,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-22</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,21 +687,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>3-22</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,21 +712,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/123/incorrect_predictions_123.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,62 +496,62 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Go to Profile &gt;</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Go to Profile &gt;</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,17 +571,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Strong Interference</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -596,12 +596,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Now Fly with caution</t>
+          <t>Strong Interference</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -662,21 +662,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-22</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,21 +687,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-22</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,21 +712,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
